--- a/techniqo/data_new_ticker/ADVENZYMES.xlsx
+++ b/techniqo/data_new_ticker/ADVENZYMES.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1021"/>
+  <dimension ref="A1:G1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36121,6 +36121,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1022" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>245.95</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>235.1</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>240.15</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>497658</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1023" t="n">
+        <v>244</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>244.85</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>235</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>236.85</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>456730</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ADVENZYMES.xlsx
+++ b/techniqo/data_new_ticker/ADVENZYMES.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1023"/>
+  <dimension ref="A1:G1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36171,6 +36171,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1024" t="n">
+        <v>234.65</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>249.85</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>246.35</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>1060115</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1025" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>254</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>251.05</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>829415</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
